--- a/classification/droptc/sentence/drone-sbert/unfreeze/24677315/prediction.xlsx
+++ b/classification/droptc/sentence/drone-sbert/unfreeze/24677315/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7917326092720032</v>
+        <v>0.9999470710754395</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9769326448440552</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9868152141571045</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9973172545433044</v>
+        <v>0.9998205304145813</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9871752858161926</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9973115921020508</v>
+        <v>0.9999516010284424</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9864001274108887</v>
+        <v>0.9999513626098633</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9860122799873352</v>
+        <v>0.9999510049819946</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9420598745346069</v>
+        <v>0.9999513626098633</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9435558915138245</v>
+        <v>0.9999171495437622</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9853160977363586</v>
+        <v>0.999951958656311</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9973335266113281</v>
+        <v>0.9997598528862</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9973449110984802</v>
+        <v>0.9999481439590454</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.997302770614624</v>
+        <v>0.9995835423469543</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9861844182014465</v>
+        <v>0.999950647354126</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9972466230392456</v>
+        <v>0.999951958656311</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9973166584968567</v>
+        <v>0.9983093738555908</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9778469800949097</v>
+        <v>0.9999536275863647</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9769484400749207</v>
+        <v>0.9999492168426514</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9973052740097046</v>
+        <v>0.9999514818191528</v>
       </c>
     </row>
     <row r="22">
@@ -1043,14 +1043,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9373015761375427</v>
+        <v>0.9999531507492065</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9923000335693359</v>
+        <v>0.9999505281448364</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9865423440933228</v>
+        <v>0.9999523162841797</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9921175837516785</v>
+        <v>0.999839186668396</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9708068370819092</v>
+        <v>0.9949107766151428</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9860746264457703</v>
+        <v>0.9999481439590454</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9973084926605225</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9972750544548035</v>
+        <v>0.9999498128890991</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9972820281982422</v>
+        <v>0.9999507665634155</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9693655967712402</v>
+        <v>0.9999504089355469</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9972896575927734</v>
+        <v>0.9999473094940186</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9918501973152161</v>
+        <v>0.9996558427810669</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9769326448440552</v>
+        <v>0.9997169375419617</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9973210692405701</v>
+        <v>0.9997523427009583</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9973236322402954</v>
+        <v>0.9999499320983887</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.997306227684021</v>
+        <v>0.9997461438179016</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9973324537277222</v>
+        <v>0.9999494552612305</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9769484400749207</v>
+        <v>0.637511670589447</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9973352551460266</v>
+        <v>0.9996672868728638</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9973347783088684</v>
+        <v>0.9999470710754395</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9973293542861938</v>
+        <v>0.9980843067169189</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9973298311233521</v>
+        <v>0.9996577501296997</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5529232621192932</v>
+        <v>0.9997486472129822</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9973289966583252</v>
+        <v>0.999674916267395</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9973369240760803</v>
+        <v>0.9996404647827148</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9973515272140503</v>
+        <v>0.9983307719230652</v>
       </c>
     </row>
     <row r="48">
@@ -1771,14 +1771,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9450814127922058</v>
+        <v>0.9996445178985596</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4784350693225861</v>
+        <v>0.9999507665634155</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9972719550132751</v>
+        <v>0.9996476173400879</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7890208959579468</v>
+        <v>0.9995846152305603</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9920697212219238</v>
+        <v>0.999948263168335</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9919592142105103</v>
+        <v>0.9996476173400879</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9921935796737671</v>
+        <v>0.9996362924575806</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9973057508468628</v>
+        <v>0.9999508857727051</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9973084926605225</v>
+        <v>0.9999512434005737</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.997289776802063</v>
+        <v>0.9999500513076782</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9775022864341736</v>
+        <v>0.9997586607933044</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9860779047012329</v>
+        <v>0.9999488592147827</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9972357153892517</v>
+        <v>0.9999502897262573</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9973281621932983</v>
+        <v>0.9999508857727051</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9973082542419434</v>
+        <v>0.9999532699584961</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9973407387733459</v>
+        <v>0.9997550845146179</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9972957968711853</v>
+        <v>0.6046503186225891</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9862270951271057</v>
+        <v>0.9997586607933044</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9923413991928101</v>
+        <v>0.9997586607933044</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9973132014274597</v>
+        <v>0.9997394680976868</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9973152279853821</v>
+        <v>0.9997586607933044</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9973127245903015</v>
+        <v>0.9998003840446472</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.997345507144928</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9922010898590088</v>
+        <v>0.999581515789032</v>
       </c>
     </row>
     <row r="72">
@@ -2443,14 +2443,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9914174675941467</v>
+        <v>0.9999494552612305</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9864873290061951</v>
+        <v>0.9997549653053284</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9973354935646057</v>
+        <v>0.999951958656311</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9973357319831848</v>
+        <v>0.9999520778656006</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9973191618919373</v>
+        <v>0.9997549653053284</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9972948431968689</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9708170890808105</v>
+        <v>0.9997549653053284</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9922254085540771</v>
+        <v>0.9999516010284424</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9973552227020264</v>
+        <v>0.9997511506080627</v>
       </c>
     </row>
     <row r="81">
@@ -2695,14 +2695,14 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9663698077201843</v>
+        <v>0.9999523162841797</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9972315430641174</v>
+        <v>0.9997511506080627</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9920876622200012</v>
+        <v>0.9999527931213379</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9973167777061462</v>
+        <v>0.9999527931213379</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9973307847976685</v>
+        <v>0.9999520778656006</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9972834587097168</v>
+        <v>0.9997491240501404</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9972980618476868</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9973363280296326</v>
+        <v>0.9997418522834778</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.97087562084198</v>
+        <v>0.9999524354934692</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5135361552238464</v>
+        <v>0.9999501705169678</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9920716881752014</v>
+        <v>0.9999499320983887</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9973192811012268</v>
+        <v>0.9999496936798096</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9973118305206299</v>
+        <v>0.9999494552612305</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9629013538360596</v>
+        <v>0.9999501705169678</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9973180890083313</v>
+        <v>0.9999501705169678</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9973132014274597</v>
+        <v>0.9999490976333618</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9922692775726318</v>
+        <v>0.9989984631538391</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9973253011703491</v>
+        <v>0.9999481439590454</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9968904852867126</v>
+        <v>0.997118353843689</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9026811718940735</v>
+        <v>0.9999517202377319</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9973084926605225</v>
+        <v>0.9999498128890991</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9914588928222656</v>
+        <v>0.9993841648101807</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9973376393318176</v>
+        <v>0.9986125230789185</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9973364472389221</v>
+        <v>0.9999477863311768</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9973084926605225</v>
+        <v>0.9998039603233337</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7033819556236267</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9973071813583374</v>
+        <v>0.9996354579925537</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9970742464065552</v>
+        <v>0.9998406171798706</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9972857236862183</v>
+        <v>0.99994957447052</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9973382353782654</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8613356351852417</v>
+        <v>0.9996547698974609</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9973236322402954</v>
+        <v>0.9996434450149536</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9972777962684631</v>
+        <v>0.9997373223304749</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.997336208820343</v>
+        <v>0.9999524354934692</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9947826266288757</v>
+        <v>0.9997579455375671</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.986339807510376</v>
+        <v>0.9999465942382812</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9973084926605225</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9973354935646057</v>
+        <v>0.9994906187057495</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9920720458030701</v>
+        <v>0.9980790615081787</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9973236322402954</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9126517176628113</v>
+        <v>0.9997965693473816</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9972971081733704</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="123">
@@ -3871,14 +3871,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9861141443252563</v>
+        <v>0.9997965693473816</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.997283935546875</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9973171353340149</v>
+        <v>0.9997965693473816</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7915059328079224</v>
+        <v>0.9999516010284424</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9921922087669373</v>
+        <v>0.9994101524353027</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9972807168960571</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9921922087669373</v>
+        <v>0.9997726082801819</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9973324537277222</v>
+        <v>0.995211660861969</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9917186498641968</v>
+        <v>0.9999499320983887</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9973115921020508</v>
+        <v>0.8126479387283325</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9973084926605225</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.997310996055603</v>
+        <v>0.9999488592147827</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.986596405506134</v>
+        <v>0.9999485015869141</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9973303079605103</v>
+        <v>0.9999312162399292</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9972869157791138</v>
+        <v>0.9999494552612305</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9973119497299194</v>
+        <v>0.9999533891677856</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9972357153892517</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9862270951271057</v>
+        <v>0.9999496936798096</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9973382353782654</v>
+        <v>0.9811230301856995</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9973188042640686</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9973236322402954</v>
+        <v>0.9997627139091492</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9972359538078308</v>
+        <v>0.999951958656311</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9206748008728027</v>
+        <v>0.9997627139091492</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9860122799873352</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9973273277282715</v>
+        <v>0.9998003840446472</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9973229765892029</v>
+        <v>0.9999512434005737</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9973076581954956</v>
+        <v>0.9997552037239075</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9973145127296448</v>
+        <v>0.9986295700073242</v>
       </c>
     </row>
     <row r="151">
@@ -4655,14 +4655,14 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9604067206382751</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9973052740097046</v>
+        <v>0.9984723925590515</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.997334897518158</v>
+        <v>0.9999501705169678</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9864820241928101</v>
+        <v>0.99983811378479</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9973496198654175</v>
+        <v>0.9999512434005737</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9972686767578125</v>
+        <v>0.9998332262039185</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9641169309616089</v>
+        <v>0.9999508857727051</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9769326448440552</v>
+        <v>0.9998337030410767</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9698399305343628</v>
+        <v>0.9999512434005737</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9973084926605225</v>
+        <v>0.999714195728302</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9972467422485352</v>
+        <v>0.9999488592147827</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9973255395889282</v>
+        <v>0.9984433054924011</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9973016977310181</v>
+        <v>0.9999418258666992</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9973560571670532</v>
+        <v>0.9997434020042419</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.997327446937561</v>
+        <v>0.9999516010284424</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.997345507144928</v>
+        <v>0.8268070816993713</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9973033666610718</v>
+        <v>0.9996451139450073</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9922692775726318</v>
+        <v>0.9996879100799561</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9973650574684143</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9922692775726318</v>
+        <v>0.9996451139450073</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9973084926605225</v>
+        <v>0.9997013211250305</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9678937196731567</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.992077648639679</v>
+        <v>0.9999514818191528</v>
       </c>
     </row>
     <row r="174">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9870923757553101</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9973405003547668</v>
+        <v>0.9999514818191528</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9693601131439209</v>
+        <v>0.9999514818191528</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9962193369865417</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9972647428512573</v>
+        <v>0.999951958656311</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9972761273384094</v>
+        <v>0.9999505281448364</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9771046042442322</v>
+        <v>0.9999493360519409</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9920161962509155</v>
+        <v>0.9999504089355469</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9922254085540771</v>
+        <v>0.9999493360519409</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9218116998672485</v>
+        <v>0.9997649788856506</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9943487048149109</v>
+        <v>0.999951958656311</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.997323751449585</v>
+        <v>0.9999520778656006</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.997327446937561</v>
+        <v>0.9999512434005737</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9972913861274719</v>
+        <v>0.9999547004699707</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9970784187316895</v>
+        <v>0.9999510049819946</v>
       </c>
     </row>
     <row r="189">
@@ -5719,14 +5719,14 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.6335396766662598</v>
+        <v>0.9999508857727051</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9973347187042236</v>
+        <v>0.9999504089355469</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9972925782203674</v>
+        <v>0.9987329840660095</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.997328519821167</v>
+        <v>0.9999525547027588</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9921935796737671</v>
+        <v>0.9999501705169678</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9973457455635071</v>
+        <v>0.999792754650116</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9972617626190186</v>
+        <v>0.9996418952941895</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9973084926605225</v>
+        <v>0.9999516010284424</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9922254085540771</v>
+        <v>0.9999499320983887</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9973514080047607</v>
+        <v>0.9999517202377319</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.997330904006958</v>
+        <v>0.9999524354934692</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9829368591308594</v>
+        <v>0.9991269707679749</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9973401427268982</v>
+        <v>0.9999510049819946</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9973112344741821</v>
+        <v>0.9999531507492065</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9710845351219177</v>
+        <v>0.9999508857727051</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9865830540657043</v>
+        <v>0.999643087387085</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9972947239875793</v>
+        <v>0.9999507665634155</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9973061084747314</v>
+        <v>0.9999508857727051</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9973078966140747</v>
+        <v>0.9989935755729675</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9973219037055969</v>
+        <v>0.9999488592147827</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9973189234733582</v>
+        <v>0.9984240531921387</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9714112281799316</v>
+        <v>0.999951958656311</v>
       </c>
     </row>
   </sheetData>
